--- a/7. Deliverables/Traceability Matrix .xlsx
+++ b/7. Deliverables/Traceability Matrix .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aracj\babbii\[Team A] -  Project X (Automated Attendance System)\ProjectX\7. Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D408ED2A-67D5-4F69-BB58-982FDADC5D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCDFF5E-1928-4020-B17C-27C75F5B7A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>Requirements</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>✔️</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,45 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -413,14 +451,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,17 +466,144 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCF4E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDEEED"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -480,18 +642,20 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="PivotTable Style 1" table="0" count="1" xr9:uid="{430A460C-846B-443F-AEA3-2936440C370C}">
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
     </tableStyle>
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{7A1879C0-36BB-45B6-BC83-C1EF68F94EAF}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="firstRowStripe" dxfId="17"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="1" xr9:uid="{04977E43-A569-42C9-8302-CC4E825CBCCA}">
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFDCF4E3"/>
+      <color rgb="FFFDEEED"/>
       <color rgb="FFF0F5FE"/>
       <color rgb="FFE6EFFE"/>
       <color rgb="FFECF3FE"/>
@@ -708,716 +872,2641 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E628B5AC-2EFF-48DB-94E3-0B9896485A82}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:H597"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6" style="4" customWidth="1"/>
     <col min="3" max="7" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="15.88671875" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="str">
+        <f>IF(COUNTA(C3:G3)&gt;0,"Satisfied","Not yet satisfied")</f>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="str">
+        <f t="shared" ref="H4:H58" si="0">IF(COUNTA(C4:G4)&gt;0,"Satisfied","Not yet satisfied")</f>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="str">
+        <f>IF(COUNTA(C23:G23)&gt;0,"Satisfied","Not yet satisfied")</f>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+      <c r="H26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="H27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Satisfied</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8" t="str">
+        <f>IF(COUNTA(C35:G35)&gt;0,"Satisfied","Not yet satisfied")</f>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8" t="str">
+        <f>IF(COUNTA(C55:G55)&gt;0,"Satisfied","Not yet satisfied")</f>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="B57" s="10"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Not yet satisfied</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E112" s="7"/>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E113" s="7"/>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E114" s="7"/>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E116" s="7"/>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E119" s="7"/>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E120" s="7"/>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E121" s="7"/>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E122" s="7"/>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E124" s="7"/>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E125" s="7"/>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E126" s="7"/>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E127" s="7"/>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E128" s="7"/>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E130" s="7"/>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E132" s="7"/>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E134" s="7"/>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E135" s="7"/>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E136" s="7"/>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E137" s="7"/>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E138" s="7"/>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E140" s="7"/>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E141" s="7"/>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E142" s="7"/>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E143" s="7"/>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E144" s="7"/>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E145" s="7"/>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E146" s="7"/>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E147" s="7"/>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E148" s="7"/>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E149" s="7"/>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E150" s="7"/>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E151" s="7"/>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E152" s="7"/>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E153" s="7"/>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E154" s="7"/>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E155" s="7"/>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E156" s="7"/>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E157" s="7"/>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E158" s="7"/>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E159" s="7"/>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E160" s="7"/>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E161" s="7"/>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E162" s="7"/>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E163" s="7"/>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E164" s="7"/>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E165" s="7"/>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E166" s="7"/>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E167" s="7"/>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E168" s="7"/>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E169" s="7"/>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E170" s="7"/>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E171" s="7"/>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E172" s="7"/>
+    </row>
+    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E173" s="7"/>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E174" s="7"/>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E175" s="7"/>
+    </row>
+    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E176" s="7"/>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E177" s="7"/>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E178" s="7"/>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E179" s="7"/>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E180" s="7"/>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E181" s="7"/>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E182" s="7"/>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E183" s="7"/>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E184" s="7"/>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E185" s="7"/>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E186" s="7"/>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E187" s="7"/>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E188" s="7"/>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E189" s="7"/>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E190" s="7"/>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E191" s="7"/>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E192" s="7"/>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E193" s="7"/>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E194" s="7"/>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E195" s="7"/>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E196" s="7"/>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E197" s="7"/>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E198" s="7"/>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E199" s="7"/>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E200" s="7"/>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E201" s="7"/>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E202" s="7"/>
+    </row>
+    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E203" s="7"/>
+    </row>
+    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E204" s="7"/>
+    </row>
+    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E205" s="7"/>
+    </row>
+    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E206" s="7"/>
+    </row>
+    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E207" s="7"/>
+    </row>
+    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E208" s="7"/>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E209" s="7"/>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E210" s="7"/>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E211" s="7"/>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E212" s="7"/>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E213" s="7"/>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E214" s="7"/>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E215" s="7"/>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E216" s="7"/>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E217" s="7"/>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E218" s="7"/>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E219" s="7"/>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E220" s="7"/>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E221" s="7"/>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E222" s="7"/>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E223" s="7"/>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E224" s="7"/>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E225" s="7"/>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E226" s="7"/>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E227" s="7"/>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E228" s="7"/>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E229" s="7"/>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E230" s="7"/>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E231" s="7"/>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E232" s="7"/>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E233" s="7"/>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E234" s="7"/>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E235" s="7"/>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E236" s="7"/>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E237" s="7"/>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E238" s="7"/>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E239" s="7"/>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E240" s="7"/>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E241" s="7"/>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E242" s="7"/>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E243" s="7"/>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E244" s="7"/>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E245" s="7"/>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E246" s="7"/>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E247" s="7"/>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E248" s="7"/>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E249" s="7"/>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E250" s="7"/>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E251" s="7"/>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E252" s="7"/>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E253" s="7"/>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E254" s="7"/>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E255" s="7"/>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E256" s="7"/>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E257" s="7"/>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E258" s="7"/>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E259" s="7"/>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E260" s="7"/>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E261" s="7"/>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E262" s="7"/>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E263" s="7"/>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E264" s="7"/>
+    </row>
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E265" s="7"/>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E266" s="7"/>
+    </row>
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E267" s="7"/>
+    </row>
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E268" s="7"/>
+    </row>
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E269" s="7"/>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E270" s="7"/>
+    </row>
+    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E271" s="7"/>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E272" s="7"/>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E273" s="7"/>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E274" s="7"/>
+    </row>
+    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E275" s="7"/>
+    </row>
+    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E276" s="7"/>
+    </row>
+    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E277" s="7"/>
+    </row>
+    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E278" s="7"/>
+    </row>
+    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E279" s="7"/>
+    </row>
+    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E280" s="7"/>
+    </row>
+    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E281" s="7"/>
+    </row>
+    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E282" s="7"/>
+    </row>
+    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E283" s="7"/>
+    </row>
+    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E284" s="7"/>
+    </row>
+    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E285" s="7"/>
+    </row>
+    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E286" s="7"/>
+    </row>
+    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E287" s="7"/>
+    </row>
+    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E288" s="7"/>
+    </row>
+    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E289" s="7"/>
+    </row>
+    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E290" s="7"/>
+    </row>
+    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E291" s="7"/>
+    </row>
+    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E292" s="7"/>
+    </row>
+    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E293" s="7"/>
+    </row>
+    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E294" s="7"/>
+    </row>
+    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E295" s="7"/>
+    </row>
+    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E296" s="7"/>
+    </row>
+    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E297" s="7"/>
+    </row>
+    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E298" s="7"/>
+    </row>
+    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E299" s="7"/>
+    </row>
+    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E300" s="7"/>
+    </row>
+    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E301" s="7"/>
+    </row>
+    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E302" s="7"/>
+    </row>
+    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E303" s="7"/>
+    </row>
+    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E304" s="7"/>
+    </row>
+    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E305" s="7"/>
+    </row>
+    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E306" s="7"/>
+    </row>
+    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E307" s="7"/>
+    </row>
+    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E308" s="7"/>
+    </row>
+    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E309" s="7"/>
+    </row>
+    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E310" s="7"/>
+    </row>
+    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E311" s="7"/>
+    </row>
+    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E312" s="7"/>
+    </row>
+    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E313" s="7"/>
+    </row>
+    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E314" s="7"/>
+    </row>
+    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E315" s="7"/>
+    </row>
+    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E316" s="7"/>
+    </row>
+    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E317" s="7"/>
+    </row>
+    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E318" s="7"/>
+    </row>
+    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E319" s="7"/>
+    </row>
+    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E320" s="7"/>
+    </row>
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E321" s="7"/>
+    </row>
+    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E322" s="7"/>
+    </row>
+    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E323" s="7"/>
+    </row>
+    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E324" s="7"/>
+    </row>
+    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E325" s="7"/>
+    </row>
+    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E326" s="7"/>
+    </row>
+    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E327" s="7"/>
+    </row>
+    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E328" s="7"/>
+    </row>
+    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E329" s="7"/>
+    </row>
+    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E330" s="7"/>
+    </row>
+    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E331" s="7"/>
+    </row>
+    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E332" s="7"/>
+    </row>
+    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E333" s="7"/>
+    </row>
+    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E334" s="7"/>
+    </row>
+    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E335" s="7"/>
+    </row>
+    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E336" s="7"/>
+    </row>
+    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E337" s="7"/>
+    </row>
+    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E338" s="7"/>
+    </row>
+    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E339" s="7"/>
+    </row>
+    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E340" s="7"/>
+    </row>
+    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E341" s="7"/>
+    </row>
+    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E342" s="7"/>
+    </row>
+    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E343" s="7"/>
+    </row>
+    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E344" s="7"/>
+    </row>
+    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E345" s="7"/>
+    </row>
+    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E346" s="7"/>
+    </row>
+    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E347" s="7"/>
+    </row>
+    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E348" s="7"/>
+    </row>
+    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E349" s="7"/>
+    </row>
+    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E350" s="7"/>
+    </row>
+    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E351" s="7"/>
+    </row>
+    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E352" s="7"/>
+    </row>
+    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E353" s="7"/>
+    </row>
+    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E354" s="7"/>
+    </row>
+    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E355" s="7"/>
+    </row>
+    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E356" s="7"/>
+    </row>
+    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E357" s="7"/>
+    </row>
+    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E358" s="7"/>
+    </row>
+    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E359" s="7"/>
+    </row>
+    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E360" s="7"/>
+    </row>
+    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E361" s="7"/>
+    </row>
+    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E362" s="7"/>
+    </row>
+    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E363" s="7"/>
+    </row>
+    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E364" s="7"/>
+    </row>
+    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E365" s="7"/>
+    </row>
+    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E366" s="7"/>
+    </row>
+    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E367" s="7"/>
+    </row>
+    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E368" s="7"/>
+    </row>
+    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E369" s="7"/>
+    </row>
+    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E370" s="7"/>
+    </row>
+    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E371" s="7"/>
+    </row>
+    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E372" s="7"/>
+    </row>
+    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E373" s="7"/>
+    </row>
+    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E374" s="7"/>
+    </row>
+    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E375" s="7"/>
+    </row>
+    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E376" s="7"/>
+    </row>
+    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E377" s="7"/>
+    </row>
+    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E378" s="7"/>
+    </row>
+    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E379" s="7"/>
+    </row>
+    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E380" s="7"/>
+    </row>
+    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E381" s="7"/>
+    </row>
+    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E382" s="7"/>
+    </row>
+    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E383" s="7"/>
+    </row>
+    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E384" s="7"/>
+    </row>
+    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E385" s="7"/>
+    </row>
+    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E386" s="7"/>
+    </row>
+    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E387" s="7"/>
+    </row>
+    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E388" s="7"/>
+    </row>
+    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E389" s="7"/>
+    </row>
+    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E390" s="7"/>
+    </row>
+    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E391" s="7"/>
+    </row>
+    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E392" s="7"/>
+    </row>
+    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E393" s="7"/>
+    </row>
+    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E394" s="7"/>
+    </row>
+    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E395" s="7"/>
+    </row>
+    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E396" s="7"/>
+    </row>
+    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E397" s="7"/>
+    </row>
+    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E398" s="7"/>
+    </row>
+    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E399" s="7"/>
+    </row>
+    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E400" s="7"/>
+    </row>
+    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E401" s="7"/>
+    </row>
+    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E402" s="7"/>
+    </row>
+    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E403" s="7"/>
+    </row>
+    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E404" s="7"/>
+    </row>
+    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E405" s="7"/>
+    </row>
+    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E406" s="7"/>
+    </row>
+    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E407" s="7"/>
+    </row>
+    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E408" s="7"/>
+    </row>
+    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E409" s="7"/>
+    </row>
+    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E410" s="7"/>
+    </row>
+    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E411" s="7"/>
+    </row>
+    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E412" s="7"/>
+    </row>
+    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E413" s="7"/>
+    </row>
+    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E414" s="7"/>
+    </row>
+    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E415" s="7"/>
+    </row>
+    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E416" s="7"/>
+    </row>
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E417" s="7"/>
+    </row>
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E418" s="7"/>
+    </row>
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E419" s="7"/>
+    </row>
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E420" s="7"/>
+    </row>
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E421" s="7"/>
+    </row>
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E422" s="7"/>
+    </row>
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E423" s="7"/>
+    </row>
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E424" s="7"/>
+    </row>
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E425" s="7"/>
+    </row>
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E426" s="7"/>
+    </row>
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E427" s="7"/>
+    </row>
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E428" s="7"/>
+    </row>
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E429" s="7"/>
+    </row>
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E430" s="7"/>
+    </row>
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E431" s="7"/>
+    </row>
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E432" s="7"/>
+    </row>
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E433" s="7"/>
+    </row>
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E434" s="7"/>
+    </row>
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E435" s="7"/>
+    </row>
+    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E436" s="7"/>
+    </row>
+    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E437" s="7"/>
+    </row>
+    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E438" s="7"/>
+    </row>
+    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E439" s="7"/>
+    </row>
+    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E440" s="7"/>
+    </row>
+    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E441" s="7"/>
+    </row>
+    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E442" s="7"/>
+    </row>
+    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E443" s="7"/>
+    </row>
+    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E444" s="7"/>
+    </row>
+    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E445" s="7"/>
+    </row>
+    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E446" s="7"/>
+    </row>
+    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E447" s="7"/>
+    </row>
+    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E448" s="7"/>
+    </row>
+    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E449" s="7"/>
+    </row>
+    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E450" s="7"/>
+    </row>
+    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E451" s="7"/>
+    </row>
+    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E452" s="7"/>
+    </row>
+    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E453" s="7"/>
+    </row>
+    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E454" s="7"/>
+    </row>
+    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E455" s="7"/>
+    </row>
+    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E456" s="7"/>
+    </row>
+    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E457" s="7"/>
+    </row>
+    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E458" s="7"/>
+    </row>
+    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E459" s="7"/>
+    </row>
+    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E460" s="7"/>
+    </row>
+    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E461" s="7"/>
+    </row>
+    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E462" s="7"/>
+    </row>
+    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E463" s="7"/>
+    </row>
+    <row r="464" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E464" s="7"/>
+    </row>
+    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E465" s="7"/>
+    </row>
+    <row r="466" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E466" s="7"/>
+    </row>
+    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E467" s="7"/>
+    </row>
+    <row r="468" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E468" s="7"/>
+    </row>
+    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E469" s="7"/>
+    </row>
+    <row r="470" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E470" s="7"/>
+    </row>
+    <row r="471" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E471" s="7"/>
+    </row>
+    <row r="472" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E472" s="7"/>
+    </row>
+    <row r="473" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E473" s="7"/>
+    </row>
+    <row r="474" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E474" s="7"/>
+    </row>
+    <row r="475" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E475" s="7"/>
+    </row>
+    <row r="476" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E476" s="7"/>
+    </row>
+    <row r="477" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E477" s="7"/>
+    </row>
+    <row r="478" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E478" s="7"/>
+    </row>
+    <row r="479" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E479" s="7"/>
+    </row>
+    <row r="480" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E480" s="7"/>
+    </row>
+    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E481" s="7"/>
+    </row>
+    <row r="482" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E482" s="7"/>
+    </row>
+    <row r="483" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E483" s="7"/>
+    </row>
+    <row r="484" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E484" s="7"/>
+    </row>
+    <row r="485" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E485" s="7"/>
+    </row>
+    <row r="486" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E486" s="7"/>
+    </row>
+    <row r="487" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E487" s="7"/>
+    </row>
+    <row r="488" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E488" s="7"/>
+    </row>
+    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E489" s="7"/>
+    </row>
+    <row r="490" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E490" s="7"/>
+    </row>
+    <row r="491" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E491" s="7"/>
+    </row>
+    <row r="492" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E492" s="7"/>
+    </row>
+    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E493" s="7"/>
+    </row>
+    <row r="494" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E494" s="7"/>
+    </row>
+    <row r="495" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E495" s="7"/>
+    </row>
+    <row r="496" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E496" s="7"/>
+    </row>
+    <row r="497" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E497" s="7"/>
+    </row>
+    <row r="498" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E498" s="7"/>
+    </row>
+    <row r="499" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E499" s="7"/>
+    </row>
+    <row r="500" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E500" s="7"/>
+    </row>
+    <row r="501" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E501" s="7"/>
+    </row>
+    <row r="502" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E502" s="7"/>
+    </row>
+    <row r="503" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E503" s="7"/>
+    </row>
+    <row r="504" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E504" s="7"/>
+    </row>
+    <row r="505" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E505" s="7"/>
+    </row>
+    <row r="506" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E506" s="7"/>
+    </row>
+    <row r="507" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E507" s="7"/>
+    </row>
+    <row r="508" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E508" s="7"/>
+    </row>
+    <row r="509" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E509" s="7"/>
+    </row>
+    <row r="510" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E510" s="7"/>
+    </row>
+    <row r="511" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E511" s="7"/>
+    </row>
+    <row r="512" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E512" s="7"/>
+    </row>
+    <row r="513" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E513" s="7"/>
+    </row>
+    <row r="514" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E514" s="7"/>
+    </row>
+    <row r="515" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E515" s="7"/>
+    </row>
+    <row r="516" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E516" s="7"/>
+    </row>
+    <row r="517" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E517" s="7"/>
+    </row>
+    <row r="518" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E518" s="7"/>
+    </row>
+    <row r="519" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E519" s="7"/>
+    </row>
+    <row r="520" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E520" s="7"/>
+    </row>
+    <row r="521" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E521" s="7"/>
+    </row>
+    <row r="522" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E522" s="7"/>
+    </row>
+    <row r="523" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E523" s="7"/>
+    </row>
+    <row r="524" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E524" s="7"/>
+    </row>
+    <row r="525" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E525" s="7"/>
+    </row>
+    <row r="526" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E526" s="7"/>
+    </row>
+    <row r="527" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E527" s="7"/>
+    </row>
+    <row r="528" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E528" s="7"/>
+    </row>
+    <row r="529" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E529" s="7"/>
+    </row>
+    <row r="530" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E530" s="7"/>
+    </row>
+    <row r="531" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E531" s="7"/>
+    </row>
+    <row r="532" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E532" s="7"/>
+    </row>
+    <row r="533" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E533" s="7"/>
+    </row>
+    <row r="534" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E534" s="7"/>
+    </row>
+    <row r="535" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E535" s="7"/>
+    </row>
+    <row r="536" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E536" s="7"/>
+    </row>
+    <row r="537" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E537" s="7"/>
+    </row>
+    <row r="538" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E538" s="7"/>
+    </row>
+    <row r="539" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E539" s="7"/>
+    </row>
+    <row r="540" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E540" s="7"/>
+    </row>
+    <row r="541" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E541" s="7"/>
+    </row>
+    <row r="542" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E542" s="7"/>
+    </row>
+    <row r="543" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E543" s="7"/>
+    </row>
+    <row r="544" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E544" s="7"/>
+    </row>
+    <row r="545" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E545" s="7"/>
+    </row>
+    <row r="546" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E546" s="7"/>
+    </row>
+    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E547" s="7"/>
+    </row>
+    <row r="548" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E548" s="7"/>
+    </row>
+    <row r="549" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E549" s="7"/>
+    </row>
+    <row r="550" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E550" s="7"/>
+    </row>
+    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E551" s="7"/>
+    </row>
+    <row r="552" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E552" s="7"/>
+    </row>
+    <row r="553" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E553" s="7"/>
+    </row>
+    <row r="554" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E554" s="7"/>
+    </row>
+    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E555" s="7"/>
+    </row>
+    <row r="556" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E556" s="7"/>
+    </row>
+    <row r="557" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E557" s="7"/>
+    </row>
+    <row r="558" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E558" s="7"/>
+    </row>
+    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E559" s="7"/>
+    </row>
+    <row r="560" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E560" s="7"/>
+    </row>
+    <row r="561" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E561" s="7"/>
+    </row>
+    <row r="562" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E562" s="7"/>
+    </row>
+    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E563" s="7"/>
+    </row>
+    <row r="564" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E564" s="7"/>
+    </row>
+    <row r="565" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E565" s="7"/>
+    </row>
+    <row r="566" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E566" s="7"/>
+    </row>
+    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E567" s="7"/>
+    </row>
+    <row r="568" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E568" s="7"/>
+    </row>
+    <row r="569" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E569" s="7"/>
+    </row>
+    <row r="570" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E570" s="7"/>
+    </row>
+    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E571" s="7"/>
+    </row>
+    <row r="572" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E572" s="7"/>
+    </row>
+    <row r="573" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E573" s="7"/>
+    </row>
+    <row r="574" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E574" s="7"/>
+    </row>
+    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E575" s="7"/>
+    </row>
+    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E576" s="7"/>
+    </row>
+    <row r="577" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E577" s="7"/>
+    </row>
+    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E578" s="7"/>
+    </row>
+    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E579" s="7"/>
+    </row>
+    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E580" s="7"/>
+    </row>
+    <row r="581" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E581" s="7"/>
+    </row>
+    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E582" s="7"/>
+    </row>
+    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E583" s="7"/>
+    </row>
+    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E584" s="7"/>
+    </row>
+    <row r="585" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E585" s="7"/>
+    </row>
+    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E586" s="7"/>
+    </row>
+    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E587" s="7"/>
+    </row>
+    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E588" s="7"/>
+    </row>
+    <row r="589" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E589" s="7"/>
+    </row>
+    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E590" s="7"/>
+    </row>
+    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E591" s="7"/>
+    </row>
+    <row r="592" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E592" s="7"/>
+    </row>
+    <row r="593" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E593" s="7"/>
+    </row>
+    <row r="594" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E594" s="7"/>
+    </row>
+    <row r="595" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E595" s="7"/>
+    </row>
+    <row r="596" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E596" s="7"/>
+    </row>
+    <row r="597" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E597" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:H58">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="C3:G58">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"✔️"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:XFD1 A1:A2 C2:XFD2 A3:XFD1048576">
-    <cfRule type="expression" priority="4">
+  <conditionalFormatting sqref="H2:XFD58 I59:XFD1048576 I1:XFD1">
+    <cfRule type="expression" priority="7">
+      <formula>OR(COUNTA(A1:$H$1000)&gt;0, COUNTA($1:$1)&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2 C2:G2 A3:G58 A59:B1048576">
+    <cfRule type="expression" priority="8">
       <formula>OR(COUNTA(A1:$A$1000)&gt;0, COUNTA($1:$1)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H58" xr:uid="{68CA941C-57DB-4488-82DC-431270696332}">
-      <formula1>"✅"</formula1>
-    </dataValidation>
+  <conditionalFormatting sqref="A3:H3 H4:H58">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$H3="Not yet satisfied"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1048575:H1048576">
+    <cfRule type="expression" priority="10">
+      <formula>OR(COUNTA(A1000:$H$1048576)&gt;0, COUNTA($1:$1)&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:H1048574">
+    <cfRule type="expression" priority="11">
+      <formula>OR(COUNTA(A60:$H$1000)&gt;0, COUNTA($1:$1)&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1048575:G1048576">
+    <cfRule type="expression" priority="16">
+      <formula>OR(COUNTA(A1000:$C$1048576)&gt;0, COUNTA($1:$1)&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:G1048574">
+    <cfRule type="expression" priority="17">
+      <formula>OR(COUNTA(A60:$C$1000)&gt;0, COUNTA($1:$1)&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:H58">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$H3="Not yet satisfied"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$H3="Satisfied"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:G58" xr:uid="{46B3CA3C-3F9B-4305-84FB-E5B2A8433C34}">
       <formula1>"✔️"</formula1>
     </dataValidation>
